--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/Documents/_Coding/Python/OptimizeTester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E25C47-B518-7C42-9883-37049FB3191F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C176279-C983-5A4F-AD88-891EE6F20616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,13 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
     <sheet name="data" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="33">
   <si>
     <t>Image</t>
   </si>
@@ -114,6 +117,30 @@
   </si>
   <si>
     <t>Average of % Size Difference</t>
+  </si>
+  <si>
+    <t>test4.png</t>
+  </si>
+  <si>
+    <t>test5.jpeg</t>
+  </si>
+  <si>
+    <t>peg</t>
+  </si>
+  <si>
+    <t>test9.jpeg</t>
+  </si>
+  <si>
+    <t>test8.jpeg</t>
+  </si>
+  <si>
+    <t>test10.jpeg</t>
+  </si>
+  <si>
+    <t>test6.jpeg</t>
+  </si>
+  <si>
+    <t>test7.jpeg</t>
   </si>
 </sst>
 </file>
@@ -597,7 +624,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -605,6 +632,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -650,7 +678,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -3138,6 +3172,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -3153,6 +3228,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5370,6 +5486,506 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[data.xlsx]Sheet7!PivotTable2</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test1.jpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test2.jpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test3.png</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test4.png</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.1245000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0764999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.696999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A041-284B-8A8B-1018759A31D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>test1.jpg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test2.jpg</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test3.png</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test4.png</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5540000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.566000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A041-284B-8A8B-1018759A31D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="614626975"/>
+        <c:axId val="603702975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="614626975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603702975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="603702975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614626975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
@@ -5394,6 +6010,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6904,6 +7560,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7570,6 +8729,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544FA7A3-125D-6BE1-0A17-A7DCF193B17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44769.465733217592" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="48" xr:uid="{00000000-000A-0000-FFFF-FFFF26000000}">
   <cacheSource type="worksheet">
@@ -7672,6 +8872,85 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44770.505611805558" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{43A64B3B-0AEF-2946-9E76-D0B7AF91FA5B}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Image" numFmtId="49">
+      <sharedItems count="4">
+        <s v="test4.png"/>
+        <s v="test1.jpg"/>
+        <s v="test2.jpg"/>
+        <s v="test3.png"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Input Size (MB)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.154585" maxValue="10.232963"/>
+    </cacheField>
+    <cacheField name="Output Size (MB)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74356100000000003" maxValue="10.232963" count="11">
+        <n v="4.9686000000000003"/>
+        <n v="2.482148"/>
+        <n v="0.74356100000000003"/>
+        <n v="3.0717850000000002"/>
+        <n v="1.1514390000000001"/>
+        <n v="4.6496000000000004"/>
+        <n v="4.243004"/>
+        <n v="1.154585"/>
+        <n v="10.232963"/>
+        <n v="4.6584149999999998"/>
+        <n v="4.2484299999999999"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Execution Time (s)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1599999999999999" maxValue="27.501999999999999" count="16">
+        <n v="23.891999999999999"/>
+        <n v="27.501999999999999"/>
+        <n v="7.97"/>
+        <n v="2.3239999999999998"/>
+        <n v="5.7720000000000002"/>
+        <n v="1.94"/>
+        <n v="5.4619999999999997"/>
+        <n v="6.7130000000000001"/>
+        <n v="1.2050000000000001"/>
+        <n v="1.1599999999999999"/>
+        <n v="23.329000000000001"/>
+        <n v="23.803000000000001"/>
+        <n v="2.6909999999999998"/>
+        <n v="2.508"/>
+        <n v="3.536"/>
+        <n v="5.1379999999999999"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Input Format" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Output Format" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Priority" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Preserve Meta Data?" numFmtId="0">
+      <sharedItems count="2">
+        <b v="0"/>
+        <b v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="% Size Difference" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.69260812194114507" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="61027208"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
   <r>
@@ -8249,6 +9528,187 @@
     <x v="1"/>
     <x v="2"/>
     <x v="35"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <x v="0"/>
+    <n v="10.232963"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="png"/>
+    <s v="png"/>
+    <s v="conversion-speed"/>
+    <x v="0"/>
+    <n v="-0.69260812194114507"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10.232963"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="png"/>
+    <s v="png"/>
+    <s v="compression-ratio"/>
+    <x v="0"/>
+    <n v="-0.69260812194114507"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4.2484299999999999"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="compression-ratio"/>
+    <x v="1"/>
+    <n v="-0.52485299182328771"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.154585"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="compression-ratio"/>
+    <x v="1"/>
+    <n v="-0.43307943646063046"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.6584149999999998"/>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="png"/>
+    <s v="jpg"/>
+    <s v="compression-ratio"/>
+    <x v="1"/>
+    <n v="-0.4105016687795916"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.154585"/>
+    <x v="4"/>
+    <x v="5"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="compression-ratio"/>
+    <x v="0"/>
+    <n v="-2.7285058611704574E-3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.6584149999999998"/>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="png"/>
+    <s v="jpg"/>
+    <s v="compression-ratio"/>
+    <x v="0"/>
+    <n v="-1.894066565212744E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4.2484299999999999"/>
+    <x v="6"/>
+    <x v="7"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="compression-ratio"/>
+    <x v="0"/>
+    <n v="-1.277993799398295E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.154585"/>
+    <x v="7"/>
+    <x v="8"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="conversion-speed"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1.154585"/>
+    <x v="7"/>
+    <x v="9"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="conversion-speed"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10.232963"/>
+    <x v="8"/>
+    <x v="10"/>
+    <s v="png"/>
+    <s v="png"/>
+    <s v="conversion-speed"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="10.232963"/>
+    <x v="8"/>
+    <x v="11"/>
+    <s v="png"/>
+    <s v="png"/>
+    <s v="compression-ratio"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.6584149999999998"/>
+    <x v="9"/>
+    <x v="12"/>
+    <s v="png"/>
+    <s v="jpg"/>
+    <s v="conversion-speed"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4.6584149999999998"/>
+    <x v="9"/>
+    <x v="13"/>
+    <s v="png"/>
+    <s v="jpg"/>
+    <s v="conversion-speed"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4.2484299999999999"/>
+    <x v="10"/>
+    <x v="14"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="conversion-speed"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4.2484299999999999"/>
+    <x v="10"/>
+    <x v="15"/>
+    <s v="jpg"/>
+    <s v="jpg"/>
+    <s v="conversion-speed"/>
+    <x v="1"/>
+    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -8829,9 +10289,192 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57744E86-2B5B-2F4F-8FDC-7A95CAF9FDEC}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="17">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Execution Time (s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0">
   <autoFilter ref="A1:J49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
+    <sortCondition ref="G1:G49"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Image"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Input Size (MB)"/>
@@ -8842,8 +10485,38 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Priority"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Preserve Meta Data?"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Quality"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="% Size Difference" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="% Size Difference" dataDxfId="2">
       <calculatedColumnFormula>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54784887-385A-AA45-8C71-CDFC52C8A028}" name="Table2" displayName="Table2" ref="A1:I41" totalsRowShown="0">
+  <autoFilter ref="A1:I41" xr:uid="{54784887-385A-AA45-8C71-CDFC52C8A028}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="jpg"/>
+        <filter val="peg"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I41">
+    <sortCondition ref="A1:A41"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4AA5F4BC-1853-6849-BE11-C353A5AD1649}" name="Image" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A7BB5A3C-B938-9C41-A6BB-0EF928FDC165}" name="Input Size (MB)"/>
+    <tableColumn id="3" xr3:uid="{A4B88171-54CB-D34B-B6EA-80F8DC6E2E5B}" name="Output Size (MB)"/>
+    <tableColumn id="4" xr3:uid="{391ECCBA-7360-C348-B569-97B977A36531}" name="Execution Time (s)"/>
+    <tableColumn id="5" xr3:uid="{3D8ECF99-DF6D-384C-A3A0-6EB16713BC0B}" name="Input Format"/>
+    <tableColumn id="6" xr3:uid="{F32BF536-20DE-0740-A2FB-8F1D8208F1E1}" name="Output Format"/>
+    <tableColumn id="7" xr3:uid="{F7D65C8B-07D2-044F-B24F-803811D1DA00}" name="Priority"/>
+    <tableColumn id="8" xr3:uid="{561478F6-1C82-114F-AE1F-2A39ABF04B22}" name="Preserve Meta Data?"/>
+    <tableColumn id="9" xr3:uid="{A92A2023-B408-8649-A179-1CFFB06F0132}" name="% Size Difference" dataDxfId="0">
+      <calculatedColumnFormula>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9576,7 +11249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -9716,7 +11389,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9769,10 +11442,10 @@
         <v>4.6584149999999998</v>
       </c>
       <c r="C2">
-        <v>10.083612</v>
+        <v>10.076672</v>
       </c>
       <c r="D2">
-        <v>4.24</v>
+        <v>8.1489999999999991</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -9781,7 +11454,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -9791,7 +11464,7 @@
       </c>
       <c r="J2" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.73601778100121518</v>
+        <v>0.73542246476047279</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -9802,10 +11475,10 @@
         <v>4.6584149999999998</v>
       </c>
       <c r="C3">
-        <v>10.083612</v>
+        <v>8.3261649999999996</v>
       </c>
       <c r="D3">
-        <v>3.84</v>
+        <v>8.1809999999999992</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -9814,7 +11487,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -9824,7 +11497,7 @@
       </c>
       <c r="J3" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.73601778100121518</v>
+        <v>0.56493933573515664</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -9835,10 +11508,10 @@
         <v>4.6584149999999998</v>
       </c>
       <c r="C4">
-        <v>10.076672</v>
+        <v>2.3011140000000001</v>
       </c>
       <c r="D4">
-        <v>8.1489999999999991</v>
+        <v>6.92</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -9853,11 +11526,11 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J4" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.73542246476047279</v>
+        <v>-0.67743118823127246</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -9868,10 +11541,10 @@
         <v>4.6584149999999998</v>
       </c>
       <c r="C5">
-        <v>8.3261649999999996</v>
+        <v>2.449128</v>
       </c>
       <c r="D5">
-        <v>8.1809999999999992</v>
+        <v>7.1050000000000004</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -9886,11 +11559,11 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J5" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.56493933573515664</v>
+        <v>-0.62167390334465789</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -9901,10 +11574,10 @@
         <v>4.6584149999999998</v>
       </c>
       <c r="C6">
-        <v>2.3080539999999998</v>
+        <v>1.1632659999999999</v>
       </c>
       <c r="D6">
-        <v>4.92</v>
+        <v>7.7169999999999996</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -9913,17 +11586,17 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J6" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.67476392990480538</v>
+        <v>-1.200735320262309</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -9934,10 +11607,10 @@
         <v>4.6584149999999998</v>
       </c>
       <c r="C7">
-        <v>2.3080539999999998</v>
+        <v>1.15812</v>
       </c>
       <c r="D7">
-        <v>4.2880000000000003</v>
+        <v>7.2919999999999998</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -9946,34 +11619,34 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.67476392990480538</v>
+        <v>-1.2035670721486245</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>4.6584149999999998</v>
+        <v>1.870414</v>
       </c>
       <c r="C8">
-        <v>2.3011140000000001</v>
+        <v>3.8545759999999998</v>
       </c>
       <c r="D8">
-        <v>6.92</v>
+        <v>4.7779999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -9985,28 +11658,28 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J8" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.67743118823127246</v>
+        <v>0.69315824132443893</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>4.6584149999999998</v>
+        <v>1.870414</v>
       </c>
       <c r="C9">
-        <v>2.449128</v>
+        <v>3.0005920000000001</v>
       </c>
       <c r="D9">
-        <v>7.1050000000000004</v>
+        <v>4.1589999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -10018,94 +11691,94 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J9" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.62167390334465789</v>
+        <v>0.46404295129178658</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>4.6584149999999998</v>
+        <v>1.870414</v>
       </c>
       <c r="C10">
-        <v>1.1702060000000001</v>
+        <v>0.94945000000000002</v>
       </c>
       <c r="D10">
-        <v>4.1529999999999996</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J10" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.1969242810606486</v>
+        <v>-0.65319745916824357</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>4.6584149999999998</v>
+        <v>1.870414</v>
       </c>
       <c r="C11">
-        <v>1.1702060000000001</v>
+        <v>1.011466</v>
       </c>
       <c r="D11">
-        <v>4.3769999999999998</v>
+        <v>5.2409999999999997</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J11" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.1969242810606486</v>
+        <v>-0.59610254417255415</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>4.6584149999999998</v>
+        <v>1.870414</v>
       </c>
       <c r="C12">
-        <v>1.1632659999999999</v>
+        <v>0.50553999999999999</v>
       </c>
       <c r="D12">
-        <v>7.7169999999999996</v>
+        <v>4.3579999999999997</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -10121,24 +11794,24 @@
       </c>
       <c r="J12" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.200735320262309</v>
+        <v>-1.148906081515046</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>4.6584149999999998</v>
+        <v>1.870414</v>
       </c>
       <c r="C13">
-        <v>1.15812</v>
+        <v>0.50879399999999997</v>
       </c>
       <c r="D13">
-        <v>7.2919999999999998</v>
+        <v>4.3010000000000002</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -10154,21 +11827,21 @@
       </c>
       <c r="J13" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.2035670721486245</v>
+        <v>-1.1445993792892424</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1.870414</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C14">
-        <v>3.8615159999999999</v>
+        <v>9.9724409999999999</v>
       </c>
       <c r="D14">
-        <v>2.2269999999999999</v>
+        <v>10.077</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -10177,7 +11850,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -10187,21 +11860,21 @@
       </c>
       <c r="J14" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.6947405149748862</v>
+        <v>0.80501552963949963</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>1.870414</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C15">
-        <v>3.8615159999999999</v>
+        <v>7.768046</v>
       </c>
       <c r="D15">
-        <v>2.488</v>
+        <v>9.1229999999999993</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -10210,7 +11883,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -10220,21 +11893,21 @@
       </c>
       <c r="J15" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.6947405149748862</v>
+        <v>0.58579836551082032</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>1.870414</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C16">
-        <v>3.8545759999999998</v>
+        <v>1.401138</v>
       </c>
       <c r="D16">
-        <v>4.7779999999999996</v>
+        <v>9.9659999999999993</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -10249,25 +11922,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J16" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.69315824132443893</v>
+        <v>-1.0079680428662863</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1.870414</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C17">
-        <v>3.0005920000000001</v>
+        <v>1.9262090000000001</v>
       </c>
       <c r="D17">
-        <v>4.1589999999999998</v>
+        <v>9.2479999999999993</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -10282,25 +11955,25 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J17" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.46404295129178658</v>
+        <v>-0.75218032989458972</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>1.870414</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C18">
-        <v>0.95638999999999996</v>
+        <v>0.32315700000000003</v>
       </c>
       <c r="D18">
-        <v>2.044</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -10309,31 +11982,31 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J18" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.6466836752742674</v>
+        <v>-1.7172474241439568</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>1.870414</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C19">
-        <v>0.95638999999999996</v>
+        <v>0.323544</v>
       </c>
       <c r="D19">
-        <v>2.7370000000000001</v>
+        <v>11.773999999999999</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -10342,31 +12015,31 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J19" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.6466836752742674</v>
+        <v>-1.7169327734584667</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>1.870414</v>
+        <v>1.154585</v>
       </c>
       <c r="C20">
-        <v>0.94945000000000002</v>
+        <v>2.6398540000000001</v>
       </c>
       <c r="D20">
-        <v>4.0289999999999999</v>
+        <v>3.3769999999999998</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -10381,25 +12054,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J20" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.65319745916824357</v>
+        <v>0.78286618917842665</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>1.870414</v>
+        <v>1.154585</v>
       </c>
       <c r="C21">
-        <v>1.011466</v>
+        <v>2.1536140000000001</v>
       </c>
       <c r="D21">
-        <v>5.2409999999999997</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -10414,25 +12087,25 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J21" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.59610254417255415</v>
+        <v>0.60397152650127761</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>1.870414</v>
+        <v>1.154585</v>
       </c>
       <c r="C22">
-        <v>0.51248000000000005</v>
+        <v>0.52207300000000001</v>
       </c>
       <c r="D22">
-        <v>2.968</v>
+        <v>3.5630000000000002</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -10441,31 +12114,31 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J22" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.1397351287971684</v>
+        <v>-0.75449137510452335</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>1.870414</v>
+        <v>1.154585</v>
       </c>
       <c r="C23">
-        <v>0.51248000000000005</v>
+        <v>0.59764300000000004</v>
       </c>
       <c r="D23">
-        <v>2.8719999999999999</v>
+        <v>2.851</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -10474,31 +12147,31 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J23" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.1397351287971684</v>
+        <v>-0.63569581127570141</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>1.870414</v>
+        <v>1.154585</v>
       </c>
       <c r="C24">
-        <v>0.50553999999999999</v>
+        <v>0.266872</v>
       </c>
       <c r="D24">
-        <v>4.3579999999999997</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -10517,21 +12190,21 @@
       </c>
       <c r="J24" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.148906081515046</v>
+        <v>-1.2490184367166928</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>1.870414</v>
+        <v>1.154585</v>
       </c>
       <c r="C25">
-        <v>0.50879399999999997</v>
+        <v>0.27148499999999998</v>
       </c>
       <c r="D25">
-        <v>4.3010000000000002</v>
+        <v>3.0750000000000002</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -10550,24 +12223,24 @@
       </c>
       <c r="J25" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.1445993792892424</v>
+        <v>-1.2385086286086939</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>4.2484299999999999</v>
+        <v>4.6584149999999998</v>
       </c>
       <c r="C26">
-        <v>9.9793810000000001</v>
+        <v>10.083612</v>
       </c>
       <c r="D26">
-        <v>5.8209999999999997</v>
+        <v>4.24</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -10583,24 +12256,24 @@
       </c>
       <c r="J26" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.80559841566633128</v>
+        <v>0.73601778100121518</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>4.2484299999999999</v>
+        <v>4.6584149999999998</v>
       </c>
       <c r="C27">
-        <v>9.9793810000000001</v>
+        <v>10.083612</v>
       </c>
       <c r="D27">
-        <v>5.673</v>
+        <v>3.84</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -10616,90 +12289,90 @@
       </c>
       <c r="J27" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.80559841566633128</v>
+        <v>0.73601778100121518</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>4.2484299999999999</v>
+        <v>4.6584149999999998</v>
       </c>
       <c r="C28">
-        <v>9.9724409999999999</v>
+        <v>2.3080539999999998</v>
       </c>
       <c r="D28">
-        <v>10.077</v>
+        <v>4.92</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J28" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.80501552963949963</v>
+        <v>-0.67476392990480538</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>4.2484299999999999</v>
+        <v>4.6584149999999998</v>
       </c>
       <c r="C29">
-        <v>7.768046</v>
+        <v>2.3080539999999998</v>
       </c>
       <c r="D29">
-        <v>9.1229999999999993</v>
+        <v>4.2880000000000003</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J29" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.58579836551082032</v>
+        <v>-0.67476392990480538</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>4.2484299999999999</v>
+        <v>4.6584149999999998</v>
       </c>
       <c r="C30">
-        <v>1.4080779999999999</v>
+        <v>1.1702060000000001</v>
       </c>
       <c r="D30">
-        <v>5.23</v>
+        <v>4.1529999999999996</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -10711,28 +12384,28 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J30" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.004277550743321</v>
+        <v>-1.1969242810606486</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>4.2484299999999999</v>
+        <v>4.6584149999999998</v>
       </c>
       <c r="C31">
-        <v>1.4080779999999999</v>
+        <v>1.1702060000000001</v>
       </c>
       <c r="D31">
-        <v>5.0369999999999999</v>
+        <v>4.3769999999999998</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -10744,25 +12417,25 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J31" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.004277550743321</v>
+        <v>-1.1969242810606486</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>4.2484299999999999</v>
+        <v>1.870414</v>
       </c>
       <c r="C32">
-        <v>1.401138</v>
+        <v>3.8615159999999999</v>
       </c>
       <c r="D32">
-        <v>9.9659999999999993</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -10771,31 +12444,31 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J32" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.0079680428662863</v>
+        <v>0.6947405149748862</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>4.2484299999999999</v>
+        <v>1.870414</v>
       </c>
       <c r="C33">
-        <v>1.9262090000000001</v>
+        <v>3.8615159999999999</v>
       </c>
       <c r="D33">
-        <v>9.2479999999999993</v>
+        <v>2.488</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -10804,31 +12477,31 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J33" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.75218032989458972</v>
+        <v>0.6947405149748862</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>4.2484299999999999</v>
+        <v>1.870414</v>
       </c>
       <c r="C34">
-        <v>0.33009699999999997</v>
+        <v>0.95638999999999996</v>
       </c>
       <c r="D34">
-        <v>4.9050000000000002</v>
+        <v>2.044</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -10843,25 +12516,25 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J34" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.7116129270396352</v>
+        <v>-0.6466836752742674</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>4.2484299999999999</v>
+        <v>1.870414</v>
       </c>
       <c r="C35">
-        <v>0.33009699999999997</v>
+        <v>0.95638999999999996</v>
       </c>
       <c r="D35">
-        <v>4.8860000000000001</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -10876,25 +12549,25 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J35" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.7116129270396352</v>
+        <v>-0.6466836752742674</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>4.2484299999999999</v>
+        <v>1.870414</v>
       </c>
       <c r="C36">
-        <v>0.32315700000000003</v>
+        <v>0.51248000000000005</v>
       </c>
       <c r="D36">
-        <v>9.9700000000000006</v>
+        <v>2.968</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -10903,7 +12576,7 @@
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -10913,21 +12586,21 @@
       </c>
       <c r="J36" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.7172474241439568</v>
+        <v>-1.1397351287971684</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>4.2484299999999999</v>
+        <v>1.870414</v>
       </c>
       <c r="C37">
-        <v>0.323544</v>
+        <v>0.51248000000000005</v>
       </c>
       <c r="D37">
-        <v>11.773999999999999</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -10936,7 +12609,7 @@
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
@@ -10946,21 +12619,21 @@
       </c>
       <c r="J37" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.7169327734584667</v>
+        <v>-1.1397351287971684</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>1.154585</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C38">
-        <v>2.646852</v>
+        <v>9.9793810000000001</v>
       </c>
       <c r="D38">
-        <v>1.992</v>
+        <v>5.8209999999999997</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -10979,21 +12652,21 @@
       </c>
       <c r="J38" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.78510678987972182</v>
+        <v>0.80559841566633128</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>1.154585</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C39">
-        <v>2.646852</v>
+        <v>9.9793810000000001</v>
       </c>
       <c r="D39">
-        <v>3.9279999999999999</v>
+        <v>5.673</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -11012,21 +12685,21 @@
       </c>
       <c r="J39" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.78510678987972182</v>
+        <v>0.80559841566633128</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>1.154585</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C40">
-        <v>2.6398540000000001</v>
+        <v>1.4080779999999999</v>
       </c>
       <c r="D40">
-        <v>3.3769999999999998</v>
+        <v>5.23</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -11035,31 +12708,31 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J40" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.78286618917842665</v>
+        <v>-1.004277550743321</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>1.154585</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C41">
-        <v>2.1536140000000001</v>
+        <v>1.4080779999999999</v>
       </c>
       <c r="D41">
-        <v>2.7519999999999998</v>
+        <v>5.0369999999999999</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -11068,31 +12741,31 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J41" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>0.60397152650127761</v>
+        <v>-1.004277550743321</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>1.154585</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C42">
-        <v>0.52900999999999998</v>
+        <v>0.33009699999999997</v>
       </c>
       <c r="D42">
-        <v>3.19</v>
+        <v>4.9050000000000002</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -11107,25 +12780,25 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J42" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.7431419076440593</v>
+        <v>-1.7116129270396352</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>1.154585</v>
+        <v>4.2484299999999999</v>
       </c>
       <c r="C43">
-        <v>0.52900999999999998</v>
+        <v>0.33009699999999997</v>
       </c>
       <c r="D43">
-        <v>1.6020000000000001</v>
+        <v>4.8860000000000001</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -11140,11 +12813,11 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J43" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.7431419076440593</v>
+        <v>-1.7116129270396352</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -11155,10 +12828,10 @@
         <v>1.154585</v>
       </c>
       <c r="C44">
-        <v>0.52207300000000001</v>
+        <v>2.646852</v>
       </c>
       <c r="D44">
-        <v>3.5630000000000002</v>
+        <v>1.992</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -11167,17 +12840,17 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J44" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.75449137510452335</v>
+        <v>0.78510678987972182</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -11188,10 +12861,10 @@
         <v>1.154585</v>
       </c>
       <c r="C45">
-        <v>0.59764300000000004</v>
+        <v>2.646852</v>
       </c>
       <c r="D45">
-        <v>2.851</v>
+        <v>3.9279999999999999</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -11200,17 +12873,17 @@
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J45" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-0.63569581127570141</v>
+        <v>0.78510678987972182</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -11221,10 +12894,10 @@
         <v>1.154585</v>
       </c>
       <c r="C46">
-        <v>0.273789</v>
+        <v>0.52900999999999998</v>
       </c>
       <c r="D46">
-        <v>1.5449999999999999</v>
+        <v>3.19</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -11239,11 +12912,11 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J46" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.233284839964883</v>
+        <v>-0.7431419076440593</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -11254,10 +12927,10 @@
         <v>1.154585</v>
       </c>
       <c r="C47">
-        <v>0.273789</v>
+        <v>0.52900999999999998</v>
       </c>
       <c r="D47">
-        <v>3.7959999999999998</v>
+        <v>1.6020000000000001</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -11272,11 +12945,11 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J47" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.233284839964883</v>
+        <v>-0.7431419076440593</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -11287,10 +12960,10 @@
         <v>1.154585</v>
       </c>
       <c r="C48">
-        <v>0.266872</v>
+        <v>0.273789</v>
       </c>
       <c r="D48">
-        <v>3.3359999999999999</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -11299,7 +12972,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -11309,7 +12982,7 @@
       </c>
       <c r="J48" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.2490184367166928</v>
+        <v>-1.233284839964883</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -11320,10 +12993,10 @@
         <v>1.154585</v>
       </c>
       <c r="C49">
-        <v>0.27148499999999998</v>
+        <v>0.273789</v>
       </c>
       <c r="D49">
-        <v>3.0750000000000002</v>
+        <v>3.7959999999999998</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -11332,7 +13005,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
@@ -11342,7 +13015,7 @@
       </c>
       <c r="J49" s="4">
         <f>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</f>
-        <v>-1.2385086286086939</v>
+        <v>-1.233284839964883</v>
       </c>
     </row>
   </sheetData>
@@ -11351,4 +13024,1382 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED29EBF-1B39-FB49-8135-6D889818AB97}">
+  <dimension ref="A3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.1245000000000003</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.5540000000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.8392499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.5725</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.742</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.6572499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.0764999999999993</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.1400000000000006</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.10825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25.696999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>23.566000000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24.631499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9.1176250000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.0004999999999988</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.0590624999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE24A302-53FC-ED4B-834E-B02E07F43FF4}">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C2">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="D2">
+        <v>3.4129999999999998</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C3">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C4">
+        <v>4.243004</v>
+      </c>
+      <c r="D4">
+        <v>6.907</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.277993799398295E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C5">
+        <v>2.482148</v>
+      </c>
+      <c r="D5">
+        <v>9.99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.52485299182328771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C6">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="D6">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C7">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="D7">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C8">
+        <v>4.3382160000000001</v>
+      </c>
+      <c r="D8">
+        <v>7.4109999999999996</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.1921755960617626E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C9">
+        <v>2.6808209999999999</v>
+      </c>
+      <c r="D9">
+        <v>5.8630000000000004</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.47338263708441597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.154585</v>
+      </c>
+      <c r="C10">
+        <v>1.154585</v>
+      </c>
+      <c r="D10">
+        <v>1.35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1.154585</v>
+      </c>
+      <c r="C11">
+        <v>1.154585</v>
+      </c>
+      <c r="D11">
+        <v>1.359</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1.154585</v>
+      </c>
+      <c r="C12">
+        <v>1.1514390000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-2.7285058611704574E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1.154585</v>
+      </c>
+      <c r="C13">
+        <v>0.74356100000000003</v>
+      </c>
+      <c r="D13">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.43307943646063046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C14">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="D14">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C15">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="D15">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C16">
+        <v>4.6496000000000004</v>
+      </c>
+      <c r="D16">
+        <v>6.0469999999999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.894066565212744E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C17">
+        <v>3.0717850000000002</v>
+      </c>
+      <c r="D17">
+        <v>6.2359999999999998</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.4105016687795916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>10.232963</v>
+      </c>
+      <c r="C18">
+        <v>4.9686000000000003</v>
+      </c>
+      <c r="D18">
+        <v>30.847000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.69260812194114507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>10.232963</v>
+      </c>
+      <c r="C19">
+        <v>10.232963</v>
+      </c>
+      <c r="D19">
+        <v>25.878</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>10.232963</v>
+      </c>
+      <c r="C20">
+        <v>4.9686000000000003</v>
+      </c>
+      <c r="D20">
+        <v>28.042000000000002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.69260812194114507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>10.232963</v>
+      </c>
+      <c r="C21">
+        <v>10.232963</v>
+      </c>
+      <c r="D21">
+        <v>23.515999999999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C22">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="D22">
+        <v>4.6630000000000003</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C23">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="D23">
+        <v>5.9960000000000004</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C24">
+        <v>1.983385</v>
+      </c>
+      <c r="D24">
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.1041440877699456E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.76271</v>
+      </c>
+      <c r="D25">
+        <v>10.832000000000001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.89786410685101337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1.281342</v>
+      </c>
+      <c r="C26">
+        <v>1.281342</v>
+      </c>
+      <c r="D26">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>1.281342</v>
+      </c>
+      <c r="C27">
+        <v>1.281342</v>
+      </c>
+      <c r="D27">
+        <v>2.2890000000000001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>1.281342</v>
+      </c>
+      <c r="C28">
+        <v>1.263612</v>
+      </c>
+      <c r="D28">
+        <v>6.4459999999999997</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.3933454199958055E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1.281342</v>
+      </c>
+      <c r="C29">
+        <v>0.58851100000000001</v>
+      </c>
+      <c r="D29">
+        <v>6.6980000000000004</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.74105397590077937</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C30">
+        <v>10.772729</v>
+      </c>
+      <c r="D30">
+        <v>6.39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-5.4548822402464162E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C31">
+        <v>10.773270999999999</v>
+      </c>
+      <c r="D31">
+        <v>5.0819999999999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-4.9517726483045105E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C32">
+        <v>10.771788000000001</v>
+      </c>
+      <c r="D32">
+        <v>10.069000000000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-6.3284222864577223E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C33">
+        <v>6.212091</v>
+      </c>
+      <c r="D33">
+        <v>12.975</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.53753130095067303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C34">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="D34">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C35">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="D35">
+        <v>2.38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C36">
+        <v>2.8566509999999998</v>
+      </c>
+      <c r="D36">
+        <v>4.327</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-2.8115766484979477E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C37">
+        <v>1.8498410000000001</v>
+      </c>
+      <c r="D37">
+        <v>5.0270000000000001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.43052093154468046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C38">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="D38">
+        <v>2.371</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C39">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="D39">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C40">
+        <v>2.7077399999999998</v>
+      </c>
+      <c r="D40">
+        <v>5.3940000000000001</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-3.5210858702927551E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C41">
+        <v>2.1651180000000001</v>
+      </c>
+      <c r="D41">
+        <v>6.2439999999999998</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <f>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.22618875231468719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/User/Documents/_Coding/Python/OptimizeTester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C176279-C983-5A4F-AD88-891EE6F20616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066963B7-6F88-4C49-9604-32FFF13FE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
     <sheet name="data" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="no-quality" sheetId="8" r:id="rId6"/>
+    <sheet name="quality (2)" sheetId="15" r:id="rId7"/>
+    <sheet name="quality" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="39">
   <si>
     <t>Image</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>test7.jpeg</t>
+  </si>
+  <si>
+    <t>test10.jpg</t>
+  </si>
+  <si>
+    <t>test5.jpg</t>
+  </si>
+  <si>
+    <t>test6.jpg</t>
+  </si>
+  <si>
+    <t>test8.jpg</t>
+  </si>
+  <si>
+    <t>test7.jpg</t>
+  </si>
+  <si>
+    <t>test9.jpg</t>
   </si>
 </sst>
 </file>
@@ -678,7 +696,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -5499,200 +5523,352 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[data.xlsx]Sheet7!PivotTable2</c:name>
-    <c:fmtId val="3"/>
-  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> % Size Difference decreases as Output Size grows (excluding Quality &gt; 100)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet7!$B$3:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FALSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Data</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet7!$A$5:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D2D2D2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="120650" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CFBA-184B-A651-B4ABCFF5E3B6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(quality!$C$2:$C$36,quality!$C$38:$C$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>test1.jpg</c:v>
+                  <c:v>0.44628699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>test2.jpg</c:v>
+                  <c:v>1.4080779999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>test3.png</c:v>
+                  <c:v>3.128463</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>test4.png</c:v>
+                  <c:v>0.96617200000000003</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet7!$B$5:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.1245000000000003</c:v>
+                <c:pt idx="4">
+                  <c:v>1.9198649999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5725</c:v>
+                <c:pt idx="5">
+                  <c:v>3.276821</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0764999999999993</c:v>
+                <c:pt idx="6">
+                  <c:v>0.44082700000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.696999999999999</c:v>
+                <c:pt idx="7">
+                  <c:v>0.579067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.345604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32516600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52900999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88029000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.402107</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3080539999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5879669999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29657800000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.425981</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.851244</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66818699999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2493369999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2410670000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60208399999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95117700000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4506810000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2817949999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4966020000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8333380000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.018394</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.74518</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2793459999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(quality!$H$2:$H$36,quality!$H$38:$H$41)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-1.6197538637579221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.004277550743321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.30364192621473562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.272126915152904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.77388693676260401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.27993184441587704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2791741424467742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1037755085853092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.39379291616557388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1210250913836177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.7431419076440593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.26959395540266595</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0745965446540744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.67476392990480538</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.25961639904627259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.2481798823767998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0019908359460981</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.40335817641117405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2434650360428217</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.78529160329613479</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.24428366310134764</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.7777272216724118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.6598121983451568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.5033463874797968</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3011562737502258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.82250985894857465</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.31649233865670667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.90955045727891926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.43568283132820357</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.17529590402504727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A041-284B-8A8B-1018759A31D9}"/>
+              <c16:uniqueId val="{00000000-CFBA-184B-A651-B4ABCFF5E3B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5700,70 +5876,44 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet7!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TRUE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Outlier</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet7!$A$5:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>test1.jpg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>test2.jpg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>test3.png</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>test4.png</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet7!$C$5:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.5540000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.742</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.566000000000003</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>quality!$C$37</c:f>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>quality!$H$37</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A041-284B-8A8B-1018759A31D9}"/>
+              <c16:uniqueId val="{0000002B-CFBA-184B-A651-B4ABCFF5E3B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5775,29 +5925,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="614626975"/>
-        <c:axId val="603702975"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="614626975"/>
+        <c:axId val="811415855"/>
+        <c:axId val="869742735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="811415855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Output Size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -5824,15 +6041,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603702975"/>
+        <c:crossAx val="869742735"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="603702975"/>
+        <c:axId val="869742735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5852,14 +6066,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>% Size Difference</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5883,9 +6158,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614626975"/>
+        <c:crossAx val="811415855"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5895,37 +6170,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5967,22 +6211,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -8063,7 +8291,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8090,8 +8318,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8192,7 +8420,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8224,10 +8452,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8267,22 +8495,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8387,8 +8616,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8520,19 +8749,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8546,6 +8776,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8733,23 +8974,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1663700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1917700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="4" name="Chart 3" descr="Chart type: Scatter. 'Output Size (MB)' and '% Size Difference' appear to cluster into 2 groups with 1 outlier.&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544FA7A3-125D-6BE1-0A17-A7DCF193B17C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BDB20C-EC10-5EBE-C016-6A6F64CC1916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8867,85 +9108,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44770.505611805558" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="16" xr:uid="{43A64B3B-0AEF-2946-9E76-D0B7AF91FA5B}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table2"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="Image" numFmtId="49">
-      <sharedItems count="4">
-        <s v="test4.png"/>
-        <s v="test1.jpg"/>
-        <s v="test2.jpg"/>
-        <s v="test3.png"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Input Size (MB)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.154585" maxValue="10.232963"/>
-    </cacheField>
-    <cacheField name="Output Size (MB)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74356100000000003" maxValue="10.232963" count="11">
-        <n v="4.9686000000000003"/>
-        <n v="2.482148"/>
-        <n v="0.74356100000000003"/>
-        <n v="3.0717850000000002"/>
-        <n v="1.1514390000000001"/>
-        <n v="4.6496000000000004"/>
-        <n v="4.243004"/>
-        <n v="1.154585"/>
-        <n v="10.232963"/>
-        <n v="4.6584149999999998"/>
-        <n v="4.2484299999999999"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Execution Time (s)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1599999999999999" maxValue="27.501999999999999" count="16">
-        <n v="23.891999999999999"/>
-        <n v="27.501999999999999"/>
-        <n v="7.97"/>
-        <n v="2.3239999999999998"/>
-        <n v="5.7720000000000002"/>
-        <n v="1.94"/>
-        <n v="5.4619999999999997"/>
-        <n v="6.7130000000000001"/>
-        <n v="1.2050000000000001"/>
-        <n v="1.1599999999999999"/>
-        <n v="23.329000000000001"/>
-        <n v="23.803000000000001"/>
-        <n v="2.6909999999999998"/>
-        <n v="2.508"/>
-        <n v="3.536"/>
-        <n v="5.1379999999999999"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Input Format" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Output Format" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Priority" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Preserve Meta Data?" numFmtId="0">
-      <sharedItems count="2">
-        <b v="0"/>
-        <b v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="% Size Difference" numFmtId="10">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.69260812194114507" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="61027208"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -9532,187 +9694,6 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
-  <r>
-    <x v="0"/>
-    <n v="10.232963"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="png"/>
-    <s v="png"/>
-    <s v="conversion-speed"/>
-    <x v="0"/>
-    <n v="-0.69260812194114507"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10.232963"/>
-    <x v="0"/>
-    <x v="1"/>
-    <s v="png"/>
-    <s v="png"/>
-    <s v="compression-ratio"/>
-    <x v="0"/>
-    <n v="-0.69260812194114507"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4.2484299999999999"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="compression-ratio"/>
-    <x v="1"/>
-    <n v="-0.52485299182328771"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1.154585"/>
-    <x v="2"/>
-    <x v="3"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="compression-ratio"/>
-    <x v="1"/>
-    <n v="-0.43307943646063046"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4.6584149999999998"/>
-    <x v="3"/>
-    <x v="4"/>
-    <s v="png"/>
-    <s v="jpg"/>
-    <s v="compression-ratio"/>
-    <x v="1"/>
-    <n v="-0.4105016687795916"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1.154585"/>
-    <x v="4"/>
-    <x v="5"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="compression-ratio"/>
-    <x v="0"/>
-    <n v="-2.7285058611704574E-3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4.6584149999999998"/>
-    <x v="5"/>
-    <x v="6"/>
-    <s v="png"/>
-    <s v="jpg"/>
-    <s v="compression-ratio"/>
-    <x v="0"/>
-    <n v="-1.894066565212744E-3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4.2484299999999999"/>
-    <x v="6"/>
-    <x v="7"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="compression-ratio"/>
-    <x v="0"/>
-    <n v="-1.277993799398295E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1.154585"/>
-    <x v="7"/>
-    <x v="8"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="conversion-speed"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="1.154585"/>
-    <x v="7"/>
-    <x v="9"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="conversion-speed"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10.232963"/>
-    <x v="8"/>
-    <x v="10"/>
-    <s v="png"/>
-    <s v="png"/>
-    <s v="conversion-speed"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10.232963"/>
-    <x v="8"/>
-    <x v="11"/>
-    <s v="png"/>
-    <s v="png"/>
-    <s v="compression-ratio"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4.6584149999999998"/>
-    <x v="9"/>
-    <x v="12"/>
-    <s v="png"/>
-    <s v="jpg"/>
-    <s v="conversion-speed"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4.6584149999999998"/>
-    <x v="9"/>
-    <x v="13"/>
-    <s v="png"/>
-    <s v="jpg"/>
-    <s v="conversion-speed"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4.2484299999999999"/>
-    <x v="10"/>
-    <x v="14"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="conversion-speed"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4.2484299999999999"/>
-    <x v="10"/>
-    <x v="15"/>
-    <s v="jpg"/>
-    <s v="jpg"/>
-    <s v="conversion-speed"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
@@ -10289,186 +10270,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57744E86-2B5B-2F4F-8FDC-7A95CAF9FDEC}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="17">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="10" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="7"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Execution Time (s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0">
   <autoFilter ref="A1:J49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -10485,7 +10286,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Priority"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Preserve Meta Data?"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Quality"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="% Size Difference" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="% Size Difference" dataDxfId="4">
       <calculatedColumnFormula>(Table1[[#This Row],[Output Size (MB)]]-Table1[[#This Row],[Input Size (MB)]])/((Table1[[#This Row],[Input Size (MB)]]+Table1[[#This Row],[Output Size (MB)]])/2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10507,7 +10308,7 @@
     <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4AA5F4BC-1853-6849-BE11-C353A5AD1649}" name="Image" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4AA5F4BC-1853-6849-BE11-C353A5AD1649}" name="Image" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{A7BB5A3C-B938-9C41-A6BB-0EF928FDC165}" name="Input Size (MB)"/>
     <tableColumn id="3" xr3:uid="{A4B88171-54CB-D34B-B6EA-80F8DC6E2E5B}" name="Output Size (MB)"/>
     <tableColumn id="4" xr3:uid="{391ECCBA-7360-C348-B569-97B977A36531}" name="Execution Time (s)"/>
@@ -10515,8 +10316,54 @@
     <tableColumn id="6" xr3:uid="{F32BF536-20DE-0740-A2FB-8F1D8208F1E1}" name="Output Format"/>
     <tableColumn id="7" xr3:uid="{F7D65C8B-07D2-044F-B24F-803811D1DA00}" name="Priority"/>
     <tableColumn id="8" xr3:uid="{561478F6-1C82-114F-AE1F-2A39ABF04B22}" name="Preserve Meta Data?"/>
-    <tableColumn id="9" xr3:uid="{A92A2023-B408-8649-A179-1CFFB06F0132}" name="% Size Difference" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{A92A2023-B408-8649-A179-1CFFB06F0132}" name="% Size Difference" dataDxfId="2">
       <calculatedColumnFormula>(Table2[[#This Row],[Output Size (MB)]]-Table2[[#This Row],[Input Size (MB)]])/((Table2[[#This Row],[Input Size (MB)]]+Table2[[#This Row],[Output Size (MB)]])/2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E61C4E66-82E9-7E4D-A81A-9337BE6E9900}" name="Table35" displayName="Table35" ref="A1:H41" totalsRowShown="0">
+  <autoFilter ref="A1:H41" xr:uid="{34368C19-3554-A94B-8B49-86C923A6C68B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3A55E1BB-7CE5-3C4E-BE75-564E5EA10DAF}" name="Image"/>
+    <tableColumn id="2" xr3:uid="{F0AFDAEB-973F-4E49-9552-332C704C8965}" name="Input Size (MB)"/>
+    <tableColumn id="3" xr3:uid="{5F5665FA-40BF-174D-A820-01949304D186}" name="Output Size (MB)"/>
+    <tableColumn id="4" xr3:uid="{2626E867-E911-F74A-919A-2A6EA0C4899E}" name="Execution Time (s)"/>
+    <tableColumn id="5" xr3:uid="{44CF73A6-598A-4C4A-9652-A714226E68BE}" name="Input Format"/>
+    <tableColumn id="6" xr3:uid="{78FAE28A-E47D-F94A-8614-76CD21E5BACC}" name="Output Format"/>
+    <tableColumn id="7" xr3:uid="{22610E54-3BA1-2B4E-B861-7237D1DE2479}" name="Quality"/>
+    <tableColumn id="8" xr3:uid="{67F05D2F-E50D-D340-9292-26E42B2B604F}" name="% Size Difference" dataDxfId="0">
+      <calculatedColumnFormula>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{34368C19-3554-A94B-8B49-86C923A6C68B}" name="Table3" displayName="Table3" ref="A1:H41" totalsRowShown="0">
+  <autoFilter ref="A1:H41" xr:uid="{34368C19-3554-A94B-8B49-86C923A6C68B}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="25"/>
+        <filter val="50"/>
+        <filter val="75"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8A759544-9805-0F4B-B6C8-E22C1D8286F7}" name="Image"/>
+    <tableColumn id="2" xr3:uid="{2C904438-579B-CF4F-9120-BEC2073FF972}" name="Input Size (MB)"/>
+    <tableColumn id="3" xr3:uid="{B45E8626-93E4-884D-9CBF-99E89FC600AC}" name="Output Size (MB)"/>
+    <tableColumn id="4" xr3:uid="{6D6B0227-C6A9-2541-95AB-37EE46E74CAD}" name="Execution Time (s)"/>
+    <tableColumn id="5" xr3:uid="{5CAEBAA9-156E-8F46-9B58-5A7262324A5F}" name="Input Format"/>
+    <tableColumn id="6" xr3:uid="{BF61FED5-8D86-B742-861A-F33F959E7AEC}" name="Output Format"/>
+    <tableColumn id="7" xr3:uid="{634B3CDF-1F24-F644-A41C-8093C3F86A95}" name="Quality"/>
+    <tableColumn id="8" xr3:uid="{052D3C15-45F9-1E44-99CB-DFFB1895608B}" name="% Size Difference" dataDxfId="1">
+      <calculatedColumnFormula>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10820,6 +10667,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10944,10 +10794,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11131,10 +10984,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11247,10 +11103,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11386,6 +11245,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13027,133 +12889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED29EBF-1B39-FB49-8135-6D889818AB97}">
-  <dimension ref="A3:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.1245000000000003</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.5540000000000003</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5.8392499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.5725</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.742</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1.6572499999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.0764999999999993</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.1400000000000006</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.10825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>25.696999999999999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>23.566000000000003</v>
-      </c>
-      <c r="D8" s="3">
-        <v>24.631499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9.1176250000000003</v>
-      </c>
-      <c r="C9" s="3">
-        <v>9.0004999999999988</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9.0590624999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE24A302-53FC-ED4B-834E-B02E07F43FF4}">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:I20"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14402,4 +14142,2270 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6435A1-AE9A-A646-952C-FBEC2CDFB3A0}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.44628699999999999</v>
+      </c>
+      <c r="D2">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.6197538637579221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.4080779999999999</v>
+      </c>
+      <c r="D3">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.004277550743321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C4">
+        <v>3.128463</v>
+      </c>
+      <c r="D4">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.30364192621473562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C5">
+        <v>9.9793810000000001</v>
+      </c>
+      <c r="D5">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.80559841566633128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.96617200000000003</v>
+      </c>
+      <c r="D6">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.272126915152904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C7">
+        <v>1.9198649999999999</v>
+      </c>
+      <c r="D7">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.77388693676260401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C8">
+        <v>3.276821</v>
+      </c>
+      <c r="D8">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.27993184441587704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C9">
+        <v>8.7945220000000006</v>
+      </c>
+      <c r="D9">
+        <v>1.899</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.67760092489575785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.44082700000000002</v>
+      </c>
+      <c r="D10">
+        <v>2.778</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.2791741424467742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.579067</v>
+      </c>
+      <c r="D11">
+        <v>3.8359999999999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.1037755085853092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C12">
+        <v>1.345604</v>
+      </c>
+      <c r="D12">
+        <v>4.6630000000000003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.39379291616557388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C13">
+        <v>6.9977830000000001</v>
+      </c>
+      <c r="D13">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>1.1090241468883972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1.154585</v>
+      </c>
+      <c r="C14">
+        <v>0.32516600000000001</v>
+      </c>
+      <c r="D14">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.1210250913836177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1.154585</v>
+      </c>
+      <c r="C15">
+        <v>0.52900999999999998</v>
+      </c>
+      <c r="D15">
+        <v>1.518</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.7431419076440593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.154585</v>
+      </c>
+      <c r="C16">
+        <v>0.88029000000000002</v>
+      </c>
+      <c r="D16">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.26959395540266595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1.154585</v>
+      </c>
+      <c r="C17">
+        <v>2.646852</v>
+      </c>
+      <c r="D17">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.78510678987972182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C18">
+        <v>1.402107</v>
+      </c>
+      <c r="D18">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.0745965446540744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C19">
+        <v>2.3080539999999998</v>
+      </c>
+      <c r="D19">
+        <v>1.88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.67476392990480538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C20">
+        <v>3.5879669999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.863</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.25961639904627259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C21">
+        <v>10.083612</v>
+      </c>
+      <c r="D21">
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.73601778100121518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1.281342</v>
+      </c>
+      <c r="C22">
+        <v>0.29657800000000001</v>
+      </c>
+      <c r="D22">
+        <v>1.925</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.2481798823767998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>1.281342</v>
+      </c>
+      <c r="C23">
+        <v>0.425981</v>
+      </c>
+      <c r="D23">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.0019908359460981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1.281342</v>
+      </c>
+      <c r="C24">
+        <v>0.851244</v>
+      </c>
+      <c r="D24">
+        <v>1.895</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>75</v>
+      </c>
+      <c r="H24" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.40335817641117405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>1.281342</v>
+      </c>
+      <c r="C25">
+        <v>4.1418020000000002</v>
+      </c>
+      <c r="D25">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>1.0549083704950486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.66818699999999998</v>
+      </c>
+      <c r="D26">
+        <v>1.702</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.2434650360428217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.2493369999999999</v>
+      </c>
+      <c r="D27">
+        <v>2.335</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.78529160329613479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C28">
+        <v>2.2410670000000001</v>
+      </c>
+      <c r="D28">
+        <v>1.694</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+      <c r="H28" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.24428366310134764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C29">
+        <v>6.3478260000000004</v>
+      </c>
+      <c r="D29">
+        <v>1.768</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.75617355511846918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>10.232963</v>
+      </c>
+      <c r="C30">
+        <v>0.60208399999999995</v>
+      </c>
+      <c r="D30">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.7777272216724118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>10.232963</v>
+      </c>
+      <c r="C31">
+        <v>0.95117700000000005</v>
+      </c>
+      <c r="D31">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.6598121983451568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>10.232963</v>
+      </c>
+      <c r="C32">
+        <v>1.4506810000000001</v>
+      </c>
+      <c r="D32">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.5033463874797968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>10.232963</v>
+      </c>
+      <c r="C33">
+        <v>3.807877</v>
+      </c>
+      <c r="D33">
+        <v>9.2219999999999995</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.91519966041917733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C34">
+        <v>2.2817949999999998</v>
+      </c>
+      <c r="D34">
+        <v>3.21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.3011562737502258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C35">
+        <v>4.4966020000000002</v>
+      </c>
+      <c r="D35">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.82250985894857465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C36">
+        <v>7.8333380000000004</v>
+      </c>
+      <c r="D36">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>75</v>
+      </c>
+      <c r="H36" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.31649233865670667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C37">
+        <v>21.686543</v>
+      </c>
+      <c r="D37">
+        <v>3.762</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.67197816735792082</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C38">
+        <v>1.018394</v>
+      </c>
+      <c r="D38">
+        <v>1.605</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.90955045727891926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C39">
+        <v>1.74518</v>
+      </c>
+      <c r="D39">
+        <v>1.931</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.43568283132820357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C40">
+        <v>2.2793459999999999</v>
+      </c>
+      <c r="D40">
+        <v>1.671</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>75</v>
+      </c>
+      <c r="H40" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.17529590402504727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C41">
+        <v>6.7528560000000004</v>
+      </c>
+      <c r="D41">
+        <v>1.792</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" s="4">
+        <f>(Table35[[#This Row],[Output Size (MB)]]-Table35[[#This Row],[Input Size (MB)]])/((Table35[[#This Row],[Input Size (MB)]]+Table35[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.85227082536311205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E78ECB-1133-6A48-AD13-F59254F00F5B}">
+  <dimension ref="A1:U41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.44628699999999999</v>
+      </c>
+      <c r="D2">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.6197538637579221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.4080779999999999</v>
+      </c>
+      <c r="D3">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.004277550743321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C4">
+        <v>3.128463</v>
+      </c>
+      <c r="D4">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.30364192621473562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4.2484299999999999</v>
+      </c>
+      <c r="C5">
+        <v>9.9793810000000001</v>
+      </c>
+      <c r="D5">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.80559841566633128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.96617200000000003</v>
+      </c>
+      <c r="D6">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.272126915152904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C7">
+        <v>1.9198649999999999</v>
+      </c>
+      <c r="D7">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.77388693676260401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C8">
+        <v>3.276821</v>
+      </c>
+      <c r="D8">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.27993184441587704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>4.3433909999999996</v>
+      </c>
+      <c r="C9">
+        <v>8.7945220000000006</v>
+      </c>
+      <c r="D9">
+        <v>1.899</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.67760092489575785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.44082700000000002</v>
+      </c>
+      <c r="D10">
+        <v>2.778</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.2791741424467742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.579067</v>
+      </c>
+      <c r="D11">
+        <v>3.8359999999999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.1037755085853092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C12">
+        <v>1.345604</v>
+      </c>
+      <c r="D12">
+        <v>4.6630000000000003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.39379291616557388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>2.0054059999999998</v>
+      </c>
+      <c r="C13">
+        <v>6.9977830000000001</v>
+      </c>
+      <c r="D13">
+        <v>4.8819999999999997</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>1.1090241468883972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1.154585</v>
+      </c>
+      <c r="C14">
+        <v>0.32516600000000001</v>
+      </c>
+      <c r="D14">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.1210250913836177</v>
+      </c>
+      <c r="U14">
+        <v>7.8333300000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1.154585</v>
+      </c>
+      <c r="C15">
+        <v>0.52900999999999998</v>
+      </c>
+      <c r="D15">
+        <v>1.518</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.7431419076440593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.154585</v>
+      </c>
+      <c r="C16">
+        <v>0.88029000000000002</v>
+      </c>
+      <c r="D16">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.26959395540266595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1.154585</v>
+      </c>
+      <c r="C17">
+        <v>2.646852</v>
+      </c>
+      <c r="D17">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.78510678987972182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C18">
+        <v>1.402107</v>
+      </c>
+      <c r="D18">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.0745965446540744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C19">
+        <v>2.3080539999999998</v>
+      </c>
+      <c r="D19">
+        <v>1.88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.67476392990480538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C20">
+        <v>3.5879669999999999</v>
+      </c>
+      <c r="D20">
+        <v>1.863</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.25961639904627259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>4.6584149999999998</v>
+      </c>
+      <c r="C21">
+        <v>10.083612</v>
+      </c>
+      <c r="D21">
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.73601778100121518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>1.281342</v>
+      </c>
+      <c r="C22">
+        <v>0.29657800000000001</v>
+      </c>
+      <c r="D22">
+        <v>1.925</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.2481798823767998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>1.281342</v>
+      </c>
+      <c r="C23">
+        <v>0.425981</v>
+      </c>
+      <c r="D23">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.0019908359460981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1.281342</v>
+      </c>
+      <c r="C24">
+        <v>0.851244</v>
+      </c>
+      <c r="D24">
+        <v>1.895</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>75</v>
+      </c>
+      <c r="H24" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.40335817641117405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>1.281342</v>
+      </c>
+      <c r="C25">
+        <v>4.1418020000000002</v>
+      </c>
+      <c r="D25">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>1.0549083704950486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.66818699999999998</v>
+      </c>
+      <c r="D26">
+        <v>1.702</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.2434650360428217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.2493369999999999</v>
+      </c>
+      <c r="D27">
+        <v>2.335</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.78529160329613479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C28">
+        <v>2.2410670000000001</v>
+      </c>
+      <c r="D28">
+        <v>1.694</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>75</v>
+      </c>
+      <c r="H28" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.24428366310134764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>2.8646940000000001</v>
+      </c>
+      <c r="C29">
+        <v>6.3478260000000004</v>
+      </c>
+      <c r="D29">
+        <v>1.768</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.75617355511846918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>10.232963</v>
+      </c>
+      <c r="C30">
+        <v>0.60208399999999995</v>
+      </c>
+      <c r="D30">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.7777272216724118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>10.232963</v>
+      </c>
+      <c r="C31">
+        <v>0.95117700000000005</v>
+      </c>
+      <c r="D31">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.6598121983451568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>10.232963</v>
+      </c>
+      <c r="C32">
+        <v>1.4506810000000001</v>
+      </c>
+      <c r="D32">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.5033463874797968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>10.232963</v>
+      </c>
+      <c r="C33">
+        <v>3.807877</v>
+      </c>
+      <c r="D33">
+        <v>9.2219999999999995</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.91519966041917733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C34">
+        <v>2.2817949999999998</v>
+      </c>
+      <c r="D34">
+        <v>3.21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-1.3011562737502258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C35">
+        <v>4.4966020000000002</v>
+      </c>
+      <c r="D35">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.82250985894857465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C36">
+        <v>7.8333380000000004</v>
+      </c>
+      <c r="D36">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>75</v>
+      </c>
+      <c r="H36" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.31649233865670667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>10.778606999999999</v>
+      </c>
+      <c r="C37">
+        <v>21.686543</v>
+      </c>
+      <c r="D37">
+        <v>3.762</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.67197816735792082</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C38">
+        <v>1.018394</v>
+      </c>
+      <c r="D38">
+        <v>1.605</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.90955045727891926</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C39">
+        <v>1.74518</v>
+      </c>
+      <c r="D39">
+        <v>1.931</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>50</v>
+      </c>
+      <c r="H39" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.43568283132820357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C40">
+        <v>2.2793459999999999</v>
+      </c>
+      <c r="D40">
+        <v>1.671</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>75</v>
+      </c>
+      <c r="H40" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>-0.17529590402504727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>2.7172909999999999</v>
+      </c>
+      <c r="C41">
+        <v>6.7528560000000004</v>
+      </c>
+      <c r="D41">
+        <v>1.792</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41" s="4">
+        <f>(Table3[[#This Row],[Output Size (MB)]]-Table3[[#This Row],[Input Size (MB)]])/((Table3[[#This Row],[Input Size (MB)]]+Table3[[#This Row],[Output Size (MB)]])/2)</f>
+        <v>0.85227082536311205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>